--- a/data/trans_orig/Q21A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q21A-Estudios-trans_orig.xlsx
@@ -724,47 +724,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 1,63</t>
+          <t>1,37; 1,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 1,99</t>
+          <t>1,54; 2,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,41; 1,74</t>
+          <t>1,4; 1,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 4,02</t>
+          <t>1,69; 3,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,7; 2,04</t>
+          <t>1,69; 2,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 1,97</t>
+          <t>1,63; 1,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,62; 1,99</t>
+          <t>1,62; 1,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,67; 2,18</t>
+          <t>1,66; 2,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,61; 1,84</t>
+          <t>1,59; 1,83</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,57; 1,83</t>
+          <t>1,58; 1,84</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,71; 2,53</t>
+          <t>1,74; 2,61</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,2; 1,52</t>
+          <t>1,2; 1,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 2,14</t>
+          <t>1,55; 2,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 1,87</t>
+          <t>1,5; 1,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,53; 1,98</t>
+          <t>1,55; 2,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,54; 1,9</t>
+          <t>1,53; 1,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,83; 2,27</t>
+          <t>1,84; 2,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,78; 2,34</t>
+          <t>1,8; 2,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,92; 10,59</t>
+          <t>1,94; 11,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 1,68</t>
+          <t>1,42; 1,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,76; 2,13</t>
+          <t>1,74; 2,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 2,03</t>
+          <t>1,71; 2,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 9,63</t>
+          <t>1,8; 9,51</t>
         </is>
       </c>
     </row>
@@ -1009,57 +1009,57 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,16</t>
+          <t>1,31; 2,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,9</t>
+          <t>1,28; 3,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 2,08</t>
+          <t>1,39; 2,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,09</t>
+          <t>1,39; 2,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 2,67</t>
+          <t>1,55; 2,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 2,59</t>
+          <t>1,48; 2,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 2,78</t>
+          <t>1,69; 2,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 1,73</t>
+          <t>1,32; 1,74</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 2,19</t>
+          <t>1,51; 2,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 2,27</t>
+          <t>1,45; 2,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 2,25</t>
+          <t>1,62; 2,3</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,28; 1,47</t>
+          <t>1,29; 1,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 1,98</t>
+          <t>1,58; 1,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 1,81</t>
+          <t>1,49; 1,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,62; 2,16</t>
+          <t>1,62; 2,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 1,87</t>
+          <t>1,62; 1,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,78; 2,06</t>
+          <t>1,78; 2,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,76; 2,11</t>
+          <t>1,75; 2,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 9,25</t>
+          <t>1,9; 9,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,51; 1,68</t>
+          <t>1,52; 1,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 1,96</t>
+          <t>1,73; 1,95</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 1,91</t>
+          <t>1,68; 1,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,84; 7,83</t>
+          <t>1,84; 7,78</t>
         </is>
       </c>
     </row>
